--- a/DIO_TN_20180307.xlsx
+++ b/DIO_TN_20180307.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>easy id</t>
     <phoneticPr fontId="1"/>
@@ -37,6 +37,14 @@
   </si>
   <si>
     <t>ra335</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ra336</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,6 +426,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
